--- a/biology/Botanique/Synechococcales/Synechococcales.xlsx
+++ b/biology/Botanique/Synechococcales/Synechococcales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Synechococcales sont un ordre de Cyanobactéries (anciennement appelées algues bleues).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (15 décembre 2020)[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (15 décembre 2020) : 
 famille des Acaryochloridaceae J.Komárek, J.Kastovsky, Mareš &amp; J.R.Johansen
 famille des Chamaesiphonaceae Borzì
 famille des Coelosphaeriaceae Elenkin
@@ -525,7 +539,7 @@
 famille des Pseudanabaenaceae K.Anagnostidis &amp; J.Komárek
 famille des Synechococcaceae J.Komárek &amp; Anagnostidis
 famille des Trichocoleusaceae T.Mai &amp; J.R.Johansen
-Selon NCBI  (15 décembre 2020)[3] :
+Selon NCBI  (15 décembre 2020) :
 famille des Acaryochloridaceae J.Komarek &amp; al. 2014
 famille des Chamaesiphonaceae Borzi 1878
 famille des Coelosphaeriaceae Elenkin 1933
@@ -540,7 +554,7 @@
 famille des Schizotrichaceae Elenkin 1949
 famille des Synechococcaceae J.Komarek &amp; K.T.Anagnostidis 1995
 famille des Trichocoleusaceae Mai &amp; Johansen (2018)
-Selon World Register of Marine Species                               (15 décembre 2020)[4] :
+Selon World Register of Marine Species                               (15 décembre 2020) :
 famille des Chamaesiphonaceae Borzì, 1878
 famille des Leptolyngbyaceae
 famille des Merismopediaceae
@@ -577,9 +591,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon IRMNG  (15 décembre 2020)[5], les Synechococcales ont pour synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon IRMNG  (15 décembre 2020), les Synechococcales ont pour synonymes :
 Chamaesiphonales
 Prochlorales
 Pseudanabaenales</t>
